--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H2">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N2">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q2">
-        <v>31.1443658804359</v>
+        <v>36.09529358259822</v>
       </c>
       <c r="R2">
-        <v>31.1443658804359</v>
+        <v>324.857642243384</v>
       </c>
       <c r="S2">
-        <v>0.1987605698027957</v>
+        <v>0.2074522678555085</v>
       </c>
       <c r="T2">
-        <v>0.1987605698027957</v>
+        <v>0.2074522678555085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H3">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N3">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q3">
-        <v>35.25066377876295</v>
+        <v>36.20939411074244</v>
       </c>
       <c r="R3">
-        <v>35.25066377876295</v>
+        <v>325.884546996682</v>
       </c>
       <c r="S3">
-        <v>0.2249665973451385</v>
+        <v>0.208108043469935</v>
       </c>
       <c r="T3">
-        <v>0.2249665973451385</v>
+        <v>0.208108043469935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H4">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I4">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J4">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N4">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q4">
-        <v>25.72022795088356</v>
+        <v>28.54754116781511</v>
       </c>
       <c r="R4">
-        <v>25.72022795088356</v>
+        <v>256.927870510336</v>
       </c>
       <c r="S4">
-        <v>0.164144204528073</v>
+        <v>0.1640726967190231</v>
       </c>
       <c r="T4">
-        <v>0.164144204528073</v>
+        <v>0.1640726967190231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H5">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I5">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J5">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N5">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q5">
-        <v>15.98416454174288</v>
+        <v>18.16046666901111</v>
       </c>
       <c r="R5">
-        <v>15.98416454174288</v>
+        <v>163.4442000211</v>
       </c>
       <c r="S5">
-        <v>0.10200951479748</v>
+        <v>0.1043745491965476</v>
       </c>
       <c r="T5">
-        <v>0.10200951479748</v>
+        <v>0.1043745491965476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H6">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J6">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N6">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q6">
-        <v>18.09163211762001</v>
+        <v>18.21787356704722</v>
       </c>
       <c r="R6">
-        <v>18.09163211762001</v>
+        <v>163.960862103425</v>
       </c>
       <c r="S6">
-        <v>0.1154591852075423</v>
+        <v>0.1047044867037988</v>
       </c>
       <c r="T6">
-        <v>0.1154591852075423</v>
+        <v>0.1047044867037988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H7">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J7">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N7">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q7">
-        <v>13.20034439604083</v>
+        <v>14.36299911715556</v>
       </c>
       <c r="R7">
-        <v>13.20034439604083</v>
+        <v>129.2669920544</v>
       </c>
       <c r="S7">
-        <v>0.08424342251252455</v>
+        <v>0.0825491759262789</v>
       </c>
       <c r="T7">
-        <v>0.08424342251252455</v>
+        <v>0.0825491759262789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.0997722810893</v>
+        <v>0.2670106666666667</v>
       </c>
       <c r="H8">
-        <v>2.0997722810893</v>
+        <v>0.8010320000000001</v>
       </c>
       <c r="I8">
-        <v>0.1104165058064459</v>
+        <v>0.0135320943453039</v>
       </c>
       <c r="J8">
-        <v>0.1104165058064459</v>
+        <v>0.0135320943453039</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N8">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q8">
-        <v>5.849667498301786</v>
+        <v>0.8426796117582221</v>
       </c>
       <c r="R8">
-        <v>5.849667498301786</v>
+        <v>7.584116505824</v>
       </c>
       <c r="S8">
-        <v>0.03733205709125467</v>
+        <v>0.004843174253031217</v>
       </c>
       <c r="T8">
-        <v>0.03733205709125467</v>
+        <v>0.004843174253031218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.0997722810893</v>
+        <v>0.2670106666666667</v>
       </c>
       <c r="H9">
-        <v>2.0997722810893</v>
+        <v>0.8010320000000001</v>
       </c>
       <c r="I9">
-        <v>0.1104165058064459</v>
+        <v>0.0135320943453039</v>
       </c>
       <c r="J9">
-        <v>0.1104165058064459</v>
+        <v>0.0135320943453039</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N9">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q9">
-        <v>6.620929865511442</v>
+        <v>0.8453433991724445</v>
       </c>
       <c r="R9">
-        <v>6.620929865511442</v>
+        <v>7.608090592552001</v>
       </c>
       <c r="S9">
-        <v>0.04225418484182612</v>
+        <v>0.004858483970318897</v>
       </c>
       <c r="T9">
-        <v>0.04225418484182612</v>
+        <v>0.004858483970318898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.496042666666666</v>
+      </c>
+      <c r="N10">
+        <v>7.488128</v>
+      </c>
+      <c r="O10">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="P10">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="Q10">
+        <v>0.6664700164551111</v>
+      </c>
+      <c r="R10">
+        <v>5.998230148096001</v>
+      </c>
+      <c r="S10">
+        <v>0.003830436121953785</v>
+      </c>
+      <c r="T10">
+        <v>0.003830436121953786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="H10">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="I10">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="J10">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.30066986069673</v>
-      </c>
-      <c r="N10">
-        <v>2.30066986069673</v>
-      </c>
-      <c r="O10">
-        <v>0.2792178909139627</v>
-      </c>
-      <c r="P10">
-        <v>0.2792178909139627</v>
-      </c>
-      <c r="Q10">
-        <v>4.830882801428575</v>
-      </c>
-      <c r="R10">
-        <v>4.830882801428575</v>
-      </c>
-      <c r="S10">
-        <v>0.03083026387336515</v>
-      </c>
-      <c r="T10">
-        <v>0.03083026387336515</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.273219</v>
+      </c>
+      <c r="H11">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J11">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.155977333333333</v>
+      </c>
+      <c r="N11">
+        <v>9.467931999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.3579027849973545</v>
+      </c>
+      <c r="P11">
+        <v>0.3579027849973545</v>
+      </c>
+      <c r="Q11">
+        <v>7.174227637702665</v>
+      </c>
+      <c r="R11">
+        <v>64.56804873932398</v>
+      </c>
+      <c r="S11">
+        <v>0.0412327936922671</v>
+      </c>
+      <c r="T11">
+        <v>0.04123279369226711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.273219</v>
+      </c>
+      <c r="H12">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J12">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.165953666666667</v>
+      </c>
+      <c r="N12">
+        <v>9.497861</v>
+      </c>
+      <c r="O12">
+        <v>0.359034148472735</v>
+      </c>
+      <c r="P12">
+        <v>0.359034148472735</v>
+      </c>
+      <c r="Q12">
+        <v>7.196906028186333</v>
+      </c>
+      <c r="R12">
+        <v>64.772154253677</v>
+      </c>
+      <c r="S12">
+        <v>0.04136313432868231</v>
+      </c>
+      <c r="T12">
+        <v>0.04136313432868232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.273219</v>
+      </c>
+      <c r="H13">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J13">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.496042666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.488128</v>
+      </c>
+      <c r="O13">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="P13">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="Q13">
+        <v>5.674051614677332</v>
+      </c>
+      <c r="R13">
+        <v>51.06646453209599</v>
+      </c>
+      <c r="S13">
+        <v>0.03261075776265489</v>
+      </c>
+      <c r="T13">
+        <v>0.0326107577626549</v>
       </c>
     </row>
   </sheetData>
